--- a/Jogos_do_Dia/2023-08-30_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-30_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="113">
   <si>
     <t>League</t>
   </si>
@@ -145,6 +145,9 @@
     <t>USA MLS</t>
   </si>
   <si>
+    <t>South America Copa Libertadores</t>
+  </si>
+  <si>
     <t>07:00:00</t>
   </si>
   <si>
@@ -172,15 +175,21 @@
     <t>20:30:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>23:30:00</t>
+  </si>
+  <si>
     <t>Seoul E-Land</t>
   </si>
   <si>
+    <t>Seongnam</t>
+  </si>
+  <si>
     <t>Cheongju</t>
   </si>
   <si>
-    <t>Seongnam</t>
-  </si>
-  <si>
     <t>Lahti</t>
   </si>
   <si>
@@ -190,12 +199,12 @@
     <t>FH</t>
   </si>
   <si>
+    <t>Ternana</t>
+  </si>
+  <si>
     <t>Sampdoria</t>
   </si>
   <si>
-    <t>Ternana</t>
-  </si>
-  <si>
     <t>Bari 1908</t>
   </si>
   <si>
@@ -214,33 +223,60 @@
     <t>Novorizontino</t>
   </si>
   <si>
+    <t>Atlanta United FC</t>
+  </si>
+  <si>
+    <t>Inter Miami</t>
+  </si>
+  <si>
     <t>Charlotte</t>
   </si>
   <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>New York City</t>
+  </si>
+  <si>
     <t>New England Revolution</t>
   </si>
   <si>
-    <t>Inter Miami</t>
-  </si>
-  <si>
-    <t>New York City</t>
-  </si>
-  <si>
-    <t>Atlanta United FC</t>
-  </si>
-  <si>
-    <t>Toronto</t>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>Chicago Fire</t>
+  </si>
+  <si>
+    <t>Houston Dynamo</t>
+  </si>
+  <si>
+    <t>Minnesota United</t>
+  </si>
+  <si>
+    <t>St. Louis City</t>
+  </si>
+  <si>
+    <t>Palmeiras</t>
+  </si>
+  <si>
+    <t>Racing Club</t>
+  </si>
+  <si>
+    <t>SJ Earthquakes</t>
+  </si>
+  <si>
+    <t>Portland Timbers</t>
   </si>
   <si>
     <t>Jeonnam Dragons</t>
   </si>
   <si>
+    <t>Gimpo Citizen</t>
+  </si>
+  <si>
     <t>Anyang</t>
   </si>
   <si>
-    <t>Gimpo Citizen</t>
-  </si>
-  <si>
     <t>Inter Turku</t>
   </si>
   <si>
@@ -250,12 +286,12 @@
     <t>KA</t>
   </si>
   <si>
+    <t>Cremonese</t>
+  </si>
+  <si>
     <t>Venezia</t>
   </si>
   <si>
-    <t>Cremonese</t>
-  </si>
-  <si>
     <t>Cittadella</t>
   </si>
   <si>
@@ -274,22 +310,49 @@
     <t>Ituano</t>
   </si>
   <si>
+    <t>FC Cincinnati</t>
+  </si>
+  <si>
+    <t>Nashville SC</t>
+  </si>
+  <si>
     <t>Orlando City</t>
   </si>
   <si>
+    <t>Philadelphia Union</t>
+  </si>
+  <si>
+    <t>Montreal Impact</t>
+  </si>
+  <si>
     <t>New York RB</t>
   </si>
   <si>
-    <t>Nashville SC</t>
-  </si>
-  <si>
-    <t>Montreal Impact</t>
-  </si>
-  <si>
-    <t>FC Cincinnati</t>
-  </si>
-  <si>
-    <t>Philadelphia Union</t>
+    <t>Seattle Sounders</t>
+  </si>
+  <si>
+    <t>Vancouver Whitecaps</t>
+  </si>
+  <si>
+    <t>Columbus Crew</t>
+  </si>
+  <si>
+    <t>Colorado Rapids</t>
+  </si>
+  <si>
+    <t>FC Dallas</t>
+  </si>
+  <si>
+    <t>Deportivo Pereira</t>
+  </si>
+  <si>
+    <t>Boca Juniors</t>
+  </si>
+  <si>
+    <t>LA Galaxy</t>
+  </si>
+  <si>
+    <t>Real Salt Lake</t>
   </si>
 </sst>
 </file>
@@ -651,7 +714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI21"/>
+  <dimension ref="A1:AI30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -772,25 +835,25 @@
         <v>45168</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="G2">
-        <v>2.61</v>
+        <v>2.85</v>
       </c>
       <c r="H2">
-        <v>3.3</v>
+        <v>3.53</v>
       </c>
       <c r="I2">
-        <v>2.3</v>
+        <v>2.51</v>
       </c>
       <c r="J2">
         <v>1.05</v>
@@ -805,10 +868,10 @@
         <v>3.15</v>
       </c>
       <c r="N2">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O2">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="P2">
         <v>1.42</v>
@@ -868,7 +931,7 @@
         <v>3.34</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -879,103 +942,103 @@
         <v>45168</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G3">
-        <v>3.4</v>
+        <v>2.56</v>
       </c>
       <c r="H3">
-        <v>3.15</v>
+        <v>3.06</v>
       </c>
       <c r="I3">
-        <v>1.97</v>
+        <v>3.16</v>
       </c>
       <c r="J3">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K3">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="L3">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="M3">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="N3">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O3">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="P3">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q3">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="R3">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="S3">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="T3">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="U3">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="V3">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="W3">
-        <v>1.62</v>
+        <v>1.31</v>
       </c>
       <c r="X3">
-        <v>1.67</v>
+        <v>1.92</v>
       </c>
       <c r="Y3">
-        <v>1.31</v>
+        <v>1.57</v>
       </c>
       <c r="Z3">
-        <v>1.66</v>
+        <v>1.29</v>
       </c>
       <c r="AA3">
-        <v>2.97</v>
+        <v>2.86</v>
       </c>
       <c r="AB3">
-        <v>2.9</v>
+        <v>1.83</v>
       </c>
       <c r="AC3">
         <v>6.5</v>
       </c>
       <c r="AD3">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="AE3">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="AF3">
-        <v>2.26</v>
+        <v>1.93</v>
       </c>
       <c r="AG3">
-        <v>3.04</v>
+        <v>2.43</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>3.94</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -986,103 +1049,103 @@
         <v>45168</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G4">
-        <v>2.33</v>
+        <v>4.02</v>
       </c>
       <c r="H4">
+        <v>3.48</v>
+      </c>
+      <c r="I4">
+        <v>2.01</v>
+      </c>
+      <c r="J4">
+        <v>1.05</v>
+      </c>
+      <c r="K4">
+        <v>10.5</v>
+      </c>
+      <c r="L4">
+        <v>1.32</v>
+      </c>
+      <c r="M4">
         <v>3.05</v>
       </c>
-      <c r="I4">
-        <v>2.77</v>
-      </c>
-      <c r="J4">
-        <v>1.07</v>
-      </c>
-      <c r="K4">
-        <v>7</v>
-      </c>
-      <c r="L4">
-        <v>1.38</v>
-      </c>
-      <c r="M4">
-        <v>2.8</v>
-      </c>
       <c r="N4">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="O4">
+        <v>1.75</v>
+      </c>
+      <c r="P4">
+        <v>1.4</v>
+      </c>
+      <c r="Q4">
+        <v>2.75</v>
+      </c>
+      <c r="R4">
+        <v>1.82</v>
+      </c>
+      <c r="S4">
+        <v>1.88</v>
+      </c>
+      <c r="T4">
+        <v>1.65</v>
+      </c>
+      <c r="U4">
+        <v>1.27</v>
+      </c>
+      <c r="V4">
+        <v>1.35</v>
+      </c>
+      <c r="W4">
         <v>1.62</v>
       </c>
-      <c r="P4">
-        <v>1.5</v>
-      </c>
-      <c r="Q4">
-        <v>2.4</v>
-      </c>
-      <c r="R4">
-        <v>1.91</v>
-      </c>
-      <c r="S4">
-        <v>1.8</v>
-      </c>
-      <c r="T4">
-        <v>1.48</v>
-      </c>
-      <c r="U4">
-        <v>1.35</v>
-      </c>
-      <c r="V4">
-        <v>1.48</v>
-      </c>
-      <c r="W4">
+      <c r="X4">
+        <v>1.67</v>
+      </c>
+      <c r="Y4">
         <v>1.31</v>
       </c>
-      <c r="X4">
-        <v>1.92</v>
-      </c>
-      <c r="Y4">
-        <v>1.57</v>
-      </c>
       <c r="Z4">
-        <v>1.29</v>
+        <v>1.66</v>
       </c>
       <c r="AA4">
-        <v>2.86</v>
+        <v>2.97</v>
       </c>
       <c r="AB4">
-        <v>1.83</v>
+        <v>2.9</v>
       </c>
       <c r="AC4">
         <v>6.5</v>
       </c>
       <c r="AD4">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="AE4">
-        <v>1.57</v>
+        <v>1.74</v>
       </c>
       <c r="AF4">
-        <v>1.93</v>
+        <v>2.26</v>
       </c>
       <c r="AG4">
-        <v>2.43</v>
+        <v>3.04</v>
       </c>
       <c r="AH4">
-        <v>3.94</v>
+        <v>4.1</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1093,25 +1156,25 @@
         <v>45168</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G5">
-        <v>2.88</v>
+        <v>3.37</v>
       </c>
       <c r="H5">
-        <v>3.25</v>
+        <v>3.49</v>
       </c>
       <c r="I5">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J5">
         <v>1.06</v>
@@ -1126,10 +1189,10 @@
         <v>3.25</v>
       </c>
       <c r="N5">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="O5">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="P5">
         <v>1.35</v>
@@ -1200,25 +1263,25 @@
         <v>45168</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G6">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H6">
-        <v>4.1</v>
+        <v>4.16</v>
       </c>
       <c r="I6">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="J6">
         <v>1.04</v>
@@ -1233,7 +1296,7 @@
         <v>3.95</v>
       </c>
       <c r="N6">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="O6">
         <v>1.87</v>
@@ -1275,28 +1338,28 @@
         <v>3.15</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1307,25 +1370,25 @@
         <v>45168</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G7">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="H7">
-        <v>3.45</v>
+        <v>3.79</v>
       </c>
       <c r="I7">
-        <v>3.15</v>
+        <v>3.43</v>
       </c>
       <c r="J7">
         <v>1.03</v>
@@ -1340,10 +1403,10 @@
         <v>4.2</v>
       </c>
       <c r="N7">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="O7">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="P7">
         <v>1.29</v>
@@ -1414,64 +1477,64 @@
         <v>45168</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G8">
+        <v>3.37</v>
+      </c>
+      <c r="H8">
+        <v>3.25</v>
+      </c>
+      <c r="I8">
+        <v>2.36</v>
+      </c>
+      <c r="J8">
+        <v>1.08</v>
+      </c>
+      <c r="K8">
+        <v>6.5</v>
+      </c>
+      <c r="L8">
+        <v>1.38</v>
+      </c>
+      <c r="M8">
+        <v>2.8</v>
+      </c>
+      <c r="N8">
+        <v>2.25</v>
+      </c>
+      <c r="O8">
+        <v>1.57</v>
+      </c>
+      <c r="P8">
+        <v>1.48</v>
+      </c>
+      <c r="Q8">
+        <v>2.5</v>
+      </c>
+      <c r="R8">
         <v>1.91</v>
       </c>
-      <c r="H8">
-        <v>3.3</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
-      <c r="J8">
-        <v>1.05</v>
-      </c>
-      <c r="K8">
-        <v>8</v>
-      </c>
-      <c r="L8">
+      <c r="S8">
+        <v>1.8</v>
+      </c>
+      <c r="T8">
+        <v>1.62</v>
+      </c>
+      <c r="U8">
+        <v>1.38</v>
+      </c>
+      <c r="V8">
         <v>1.33</v>
-      </c>
-      <c r="M8">
-        <v>3</v>
-      </c>
-      <c r="N8">
-        <v>1.97</v>
-      </c>
-      <c r="O8">
-        <v>1.74</v>
-      </c>
-      <c r="P8">
-        <v>1.43</v>
-      </c>
-      <c r="Q8">
-        <v>2.63</v>
-      </c>
-      <c r="R8">
-        <v>1.85</v>
-      </c>
-      <c r="S8">
-        <v>1.85</v>
-      </c>
-      <c r="T8">
-        <v>1.25</v>
-      </c>
-      <c r="U8">
-        <v>1.3</v>
-      </c>
-      <c r="V8">
-        <v>1.88</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1480,37 +1543,37 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>1.19</v>
+        <v>0.99</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>1.19</v>
+        <v>0.99</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1521,64 +1584,64 @@
         <v>45168</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G9">
-        <v>3.15</v>
+        <v>2.23</v>
       </c>
       <c r="H9">
-        <v>3.3</v>
+        <v>3.52</v>
       </c>
       <c r="I9">
-        <v>2.19</v>
+        <v>3.38</v>
       </c>
       <c r="J9">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K9">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="L9">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="M9">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N9">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="O9">
-        <v>1.59</v>
+        <v>1.82</v>
       </c>
       <c r="P9">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="Q9">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R9">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>1.62</v>
+        <v>1.25</v>
       </c>
       <c r="U9">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="V9">
-        <v>1.33</v>
+        <v>1.88</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1587,37 +1650,37 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.99</v>
+        <v>1.19</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.99</v>
+        <v>1.19</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1628,25 +1691,25 @@
         <v>45168</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G10">
-        <v>2.25</v>
+        <v>2.36</v>
       </c>
       <c r="H10">
-        <v>3.15</v>
+        <v>3.08</v>
       </c>
       <c r="I10">
-        <v>3.15</v>
+        <v>3.58</v>
       </c>
       <c r="J10">
         <v>1.09</v>
@@ -1661,10 +1724,10 @@
         <v>2.63</v>
       </c>
       <c r="N10">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="O10">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="P10">
         <v>1.5</v>
@@ -1703,28 +1766,28 @@
         <v>2.22</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1735,25 +1798,25 @@
         <v>45168</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G11">
-        <v>3.4</v>
+        <v>3.13</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>3.34</v>
       </c>
       <c r="I11">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="J11">
         <v>1.08</v>
@@ -1801,37 +1864,37 @@
         <v>1</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Z11">
         <v>1.8</v>
       </c>
       <c r="AA11">
-        <v>1.8</v>
+        <v>3.33</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1842,25 +1905,25 @@
         <v>45168</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G12">
-        <v>1.66</v>
+        <v>1.55</v>
       </c>
       <c r="H12">
-        <v>4.25</v>
+        <v>4.63</v>
       </c>
       <c r="I12">
-        <v>4.7</v>
+        <v>5.92</v>
       </c>
       <c r="J12">
         <v>1.02</v>
@@ -1875,10 +1938,10 @@
         <v>4.75</v>
       </c>
       <c r="N12">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="O12">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="P12">
         <v>1.29</v>
@@ -1917,28 +1980,28 @@
         <v>4.06</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AH12">
         <v>2</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -1949,25 +2012,25 @@
         <v>45168</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G13">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="H13">
-        <v>4.1</v>
+        <v>3.98</v>
       </c>
       <c r="I13">
-        <v>4.9</v>
+        <v>5.69</v>
       </c>
       <c r="J13">
         <v>1.03</v>
@@ -1982,10 +2045,10 @@
         <v>3.3</v>
       </c>
       <c r="N13">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="O13">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="P13">
         <v>1.4</v>
@@ -2024,28 +2087,28 @@
         <v>3.25</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AG13">
         <v>1.88</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2056,25 +2119,25 @@
         <v>45168</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G14">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="H14">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="I14">
-        <v>3.4</v>
+        <v>4.34</v>
       </c>
       <c r="J14">
         <v>1.05</v>
@@ -2089,10 +2152,10 @@
         <v>3.78</v>
       </c>
       <c r="N14">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="O14">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P14">
         <v>1.4</v>
@@ -2131,28 +2194,28 @@
         <v>2.4</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AG14">
         <v>2</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2163,25 +2226,25 @@
         <v>45168</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15">
         <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G15">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H15">
-        <v>3.5</v>
+        <v>3.69</v>
       </c>
       <c r="I15">
-        <v>5.5</v>
+        <v>6.75</v>
       </c>
       <c r="J15">
         <v>1.08</v>
@@ -2196,10 +2259,10 @@
         <v>2.65</v>
       </c>
       <c r="N15">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="O15">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P15">
         <v>1.5</v>
@@ -2238,28 +2301,28 @@
         <v>3.25</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2270,103 +2333,103 @@
         <v>45168</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G16">
-        <v>2.58</v>
+        <v>2.11</v>
       </c>
       <c r="H16">
-        <v>3.54</v>
+        <v>3.89</v>
       </c>
       <c r="I16">
-        <v>2.58</v>
+        <v>3.37</v>
       </c>
       <c r="J16">
         <v>1.02</v>
       </c>
       <c r="K16">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L16">
+        <v>1.2</v>
+      </c>
+      <c r="M16">
+        <v>4.5</v>
+      </c>
+      <c r="N16">
+        <v>1.57</v>
+      </c>
+      <c r="O16">
+        <v>2.25</v>
+      </c>
+      <c r="P16">
+        <v>1.3</v>
+      </c>
+      <c r="Q16">
+        <v>3.4</v>
+      </c>
+      <c r="R16">
+        <v>1.53</v>
+      </c>
+      <c r="S16">
+        <v>2.38</v>
+      </c>
+      <c r="T16">
+        <v>1.4</v>
+      </c>
+      <c r="U16">
         <v>1.22</v>
       </c>
-      <c r="M16">
-        <v>3.8</v>
-      </c>
-      <c r="N16">
-        <v>1.61</v>
-      </c>
-      <c r="O16">
-        <v>2.05</v>
-      </c>
-      <c r="P16">
-        <v>1.33</v>
-      </c>
-      <c r="Q16">
-        <v>3.25</v>
-      </c>
-      <c r="R16">
-        <v>1.57</v>
-      </c>
-      <c r="S16">
-        <v>2.25</v>
-      </c>
-      <c r="T16">
-        <v>1.44</v>
-      </c>
-      <c r="U16">
-        <v>1.3</v>
-      </c>
       <c r="V16">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="W16">
+        <v>2.08</v>
+      </c>
+      <c r="X16">
         <v>1.42</v>
       </c>
-      <c r="X16">
-        <v>1.75</v>
-      </c>
       <c r="Y16">
-        <v>1.31</v>
+        <v>1.73</v>
       </c>
       <c r="Z16">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AA16">
-        <v>2.59</v>
+        <v>3.08</v>
       </c>
       <c r="AB16">
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="AC16">
         <v>7.5</v>
       </c>
       <c r="AD16">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="AE16">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AF16">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AG16">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="AH16">
-        <v>2.43</v>
+        <v>2.35</v>
       </c>
       <c r="AI16">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2377,103 +2440,103 @@
         <v>45168</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="G17">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="H17">
-        <v>4.9</v>
+        <v>4.59</v>
       </c>
       <c r="I17">
-        <v>8</v>
+        <v>6.07</v>
       </c>
       <c r="J17">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K17">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L17">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="M17">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N17">
         <v>1.57</v>
       </c>
       <c r="O17">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P17">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q17">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R17">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S17">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="T17">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U17">
         <v>1.22</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="W17">
-        <v>2.5</v>
+        <v>1.27</v>
       </c>
       <c r="X17">
-        <v>0.64</v>
+        <v>0.92</v>
       </c>
       <c r="Y17">
-        <v>1.55</v>
+        <v>1.31</v>
       </c>
       <c r="Z17">
-        <v>1.49</v>
+        <v>1.09</v>
       </c>
       <c r="AA17">
-        <v>3.04</v>
+        <v>2.4</v>
       </c>
       <c r="AB17">
-        <v>1.63</v>
+        <v>1.43</v>
       </c>
       <c r="AC17">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD17">
-        <v>2.7</v>
+        <v>3.65</v>
       </c>
       <c r="AE17">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AF17">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AG17">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="AH17">
-        <v>2.43</v>
+        <v>2.28</v>
       </c>
       <c r="AI17">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2484,25 +2547,25 @@
         <v>45168</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G18">
-        <v>1.89</v>
+        <v>2.4</v>
       </c>
       <c r="H18">
-        <v>3.92</v>
+        <v>3.73</v>
       </c>
       <c r="I18">
-        <v>3.71</v>
+        <v>2.92</v>
       </c>
       <c r="J18">
         <v>1.02</v>
@@ -2511,76 +2574,76 @@
         <v>10</v>
       </c>
       <c r="L18">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="M18">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="N18">
+        <v>1.67</v>
+      </c>
+      <c r="O18">
+        <v>2.1</v>
+      </c>
+      <c r="P18">
+        <v>1.33</v>
+      </c>
+      <c r="Q18">
+        <v>3.25</v>
+      </c>
+      <c r="R18">
         <v>1.57</v>
       </c>
-      <c r="O18">
-        <v>2.2</v>
-      </c>
-      <c r="P18">
+      <c r="S18">
+        <v>2.25</v>
+      </c>
+      <c r="T18">
+        <v>1.44</v>
+      </c>
+      <c r="U18">
         <v>1.3</v>
       </c>
-      <c r="Q18">
-        <v>3.4</v>
-      </c>
-      <c r="R18">
-        <v>1.62</v>
-      </c>
-      <c r="S18">
-        <v>2.2</v>
-      </c>
-      <c r="T18">
-        <v>1.25</v>
-      </c>
-      <c r="U18">
-        <v>1.22</v>
-      </c>
       <c r="V18">
-        <v>2.15</v>
+        <v>1.57</v>
       </c>
       <c r="W18">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="X18">
-        <v>0.92</v>
+        <v>1.75</v>
       </c>
       <c r="Y18">
         <v>1.31</v>
       </c>
       <c r="Z18">
-        <v>1.09</v>
+        <v>1.28</v>
       </c>
       <c r="AA18">
-        <v>2.4</v>
+        <v>2.59</v>
       </c>
       <c r="AB18">
-        <v>1.43</v>
+        <v>1.9</v>
       </c>
       <c r="AC18">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD18">
-        <v>3.65</v>
+        <v>2.18</v>
       </c>
       <c r="AE18">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AF18">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AG18">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="AH18">
-        <v>2.28</v>
+        <v>2.43</v>
       </c>
       <c r="AI18">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2591,43 +2654,43 @@
         <v>45168</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="G19">
-        <v>2.02</v>
+        <v>3.42</v>
       </c>
       <c r="H19">
-        <v>3.52</v>
+        <v>3.77</v>
       </c>
       <c r="I19">
-        <v>3.63</v>
+        <v>2.13</v>
       </c>
       <c r="J19">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="K19">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="L19">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="M19">
-        <v>3.64</v>
+        <v>3.6</v>
       </c>
       <c r="N19">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O19">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="P19">
         <v>1.36</v>
@@ -2636,58 +2699,58 @@
         <v>3</v>
       </c>
       <c r="R19">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="S19">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="T19">
-        <v>1.17</v>
+        <v>1.72</v>
       </c>
       <c r="U19">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="V19">
-        <v>2.22</v>
+        <v>1.36</v>
       </c>
       <c r="W19">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="X19">
-        <v>0.62</v>
+        <v>1.31</v>
       </c>
       <c r="Y19">
-        <v>1.63</v>
+        <v>1.4</v>
       </c>
       <c r="Z19">
-        <v>1.2</v>
+        <v>1.41</v>
       </c>
       <c r="AA19">
-        <v>2.83</v>
+        <v>2.81</v>
       </c>
       <c r="AB19">
-        <v>1.47</v>
+        <v>2.2</v>
       </c>
       <c r="AC19">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD19">
-        <v>3.25</v>
+        <v>1.88</v>
       </c>
       <c r="AE19">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AF19">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="AG19">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AH19">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="AI19">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2698,103 +2761,103 @@
         <v>45168</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="G20">
+        <v>1.72</v>
+      </c>
+      <c r="H20">
+        <v>3.96</v>
+      </c>
+      <c r="I20">
+        <v>5.04</v>
+      </c>
+      <c r="J20">
+        <v>1.01</v>
+      </c>
+      <c r="K20">
+        <v>10.25</v>
+      </c>
+      <c r="L20">
+        <v>1.23</v>
+      </c>
+      <c r="M20">
+        <v>3.64</v>
+      </c>
+      <c r="N20">
+        <v>1.92</v>
+      </c>
+      <c r="O20">
+        <v>1.97</v>
+      </c>
+      <c r="P20">
+        <v>1.36</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <v>1.8</v>
+      </c>
+      <c r="S20">
+        <v>1.95</v>
+      </c>
+      <c r="T20">
+        <v>1.17</v>
+      </c>
+      <c r="U20">
+        <v>1.24</v>
+      </c>
+      <c r="V20">
         <v>2.22</v>
       </c>
-      <c r="H20">
-        <v>3.65</v>
-      </c>
-      <c r="I20">
-        <v>3.03</v>
-      </c>
-      <c r="J20">
-        <v>1.02</v>
-      </c>
-      <c r="K20">
-        <v>17</v>
-      </c>
-      <c r="L20">
+      <c r="W20">
+        <v>1.45</v>
+      </c>
+      <c r="X20">
+        <v>0.62</v>
+      </c>
+      <c r="Y20">
+        <v>1.63</v>
+      </c>
+      <c r="Z20">
         <v>1.2</v>
       </c>
-      <c r="M20">
-        <v>4.5</v>
-      </c>
-      <c r="N20">
-        <v>1.57</v>
-      </c>
-      <c r="O20">
-        <v>2.2</v>
-      </c>
-      <c r="P20">
+      <c r="AA20">
+        <v>2.83</v>
+      </c>
+      <c r="AB20">
+        <v>1.47</v>
+      </c>
+      <c r="AC20">
+        <v>8</v>
+      </c>
+      <c r="AD20">
+        <v>3.25</v>
+      </c>
+      <c r="AE20">
         <v>1.3</v>
       </c>
-      <c r="Q20">
-        <v>3.4</v>
-      </c>
-      <c r="R20">
-        <v>1.53</v>
-      </c>
-      <c r="S20">
-        <v>2.38</v>
-      </c>
-      <c r="T20">
-        <v>1.4</v>
-      </c>
-      <c r="U20">
-        <v>1.22</v>
-      </c>
-      <c r="V20">
-        <v>1.68</v>
-      </c>
-      <c r="W20">
-        <v>2.08</v>
-      </c>
-      <c r="X20">
-        <v>1.42</v>
-      </c>
-      <c r="Y20">
-        <v>1.73</v>
-      </c>
-      <c r="Z20">
-        <v>1.35</v>
-      </c>
-      <c r="AA20">
-        <v>3.08</v>
-      </c>
-      <c r="AB20">
-        <v>1.71</v>
-      </c>
-      <c r="AC20">
-        <v>7.5</v>
-      </c>
-      <c r="AD20">
-        <v>2.5</v>
-      </c>
-      <c r="AE20">
-        <v>1.27</v>
-      </c>
       <c r="AF20">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AG20">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AH20">
-        <v>2.35</v>
+        <v>2.48</v>
       </c>
       <c r="AI20">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2805,102 +2868,1065 @@
         <v>45168</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="G21">
-        <v>3.36</v>
+        <v>2.1</v>
       </c>
       <c r="H21">
-        <v>3.56</v>
+        <v>3.64</v>
       </c>
       <c r="I21">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="J21">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L21">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="M21">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N21">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="O21">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="P21">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R21">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S21">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="T21">
-        <v>1.72</v>
+        <v>1.22</v>
       </c>
       <c r="U21">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V21">
-        <v>1.36</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>1.15</v>
+        <v>2.5</v>
       </c>
       <c r="X21">
-        <v>1.31</v>
+        <v>0.64</v>
       </c>
       <c r="Y21">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="Z21">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="AA21">
-        <v>2.81</v>
+        <v>3.04</v>
       </c>
       <c r="AB21">
-        <v>2.2</v>
+        <v>1.63</v>
       </c>
       <c r="AC21">
         <v>7.5</v>
       </c>
       <c r="AD21">
-        <v>1.88</v>
+        <v>2.7</v>
       </c>
       <c r="AE21">
+        <v>1.29</v>
+      </c>
+      <c r="AF21">
+        <v>1.54</v>
+      </c>
+      <c r="AG21">
+        <v>1.92</v>
+      </c>
+      <c r="AH21">
+        <v>2.43</v>
+      </c>
+      <c r="AI21">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45168</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22">
+        <v>2.1</v>
+      </c>
+      <c r="H22">
+        <v>3.74</v>
+      </c>
+      <c r="I22">
+        <v>3.51</v>
+      </c>
+      <c r="J22">
+        <v>1.04</v>
+      </c>
+      <c r="K22">
+        <v>13</v>
+      </c>
+      <c r="L22">
         <v>1.28</v>
       </c>
-      <c r="AF21">
+      <c r="M22">
+        <v>3.6</v>
+      </c>
+      <c r="N22">
+        <v>1.75</v>
+      </c>
+      <c r="O22">
+        <v>1.95</v>
+      </c>
+      <c r="P22">
+        <v>1.36</v>
+      </c>
+      <c r="Q22">
+        <v>3</v>
+      </c>
+      <c r="R22">
+        <v>1.7</v>
+      </c>
+      <c r="S22">
+        <v>2.05</v>
+      </c>
+      <c r="T22">
+        <v>1.33</v>
+      </c>
+      <c r="U22">
+        <v>1.25</v>
+      </c>
+      <c r="V22">
+        <v>1.75</v>
+      </c>
+      <c r="W22">
+        <v>1.75</v>
+      </c>
+      <c r="X22">
+        <v>1.25</v>
+      </c>
+      <c r="Y22">
         <v>1.52</v>
       </c>
-      <c r="AG21">
-        <v>1.88</v>
-      </c>
-      <c r="AH21">
+      <c r="Z22">
+        <v>1.22</v>
+      </c>
+      <c r="AA22">
+        <v>2.74</v>
+      </c>
+      <c r="AB22">
+        <v>1.65</v>
+      </c>
+      <c r="AC22">
+        <v>7.5</v>
+      </c>
+      <c r="AD22">
+        <v>2.63</v>
+      </c>
+      <c r="AE22">
+        <v>1.29</v>
+      </c>
+      <c r="AF22">
+        <v>1.55</v>
+      </c>
+      <c r="AG22">
+        <v>1.93</v>
+      </c>
+      <c r="AH22">
+        <v>2.45</v>
+      </c>
+      <c r="AI22">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45168</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23">
+        <v>2.21</v>
+      </c>
+      <c r="H23">
+        <v>3.89</v>
+      </c>
+      <c r="I23">
+        <v>3.11</v>
+      </c>
+      <c r="J23">
+        <v>1.02</v>
+      </c>
+      <c r="K23">
+        <v>15</v>
+      </c>
+      <c r="L23">
+        <v>1.2</v>
+      </c>
+      <c r="M23">
+        <v>4.33</v>
+      </c>
+      <c r="N23">
+        <v>1.57</v>
+      </c>
+      <c r="O23">
+        <v>2.25</v>
+      </c>
+      <c r="P23">
+        <v>1.3</v>
+      </c>
+      <c r="Q23">
+        <v>3.4</v>
+      </c>
+      <c r="R23">
+        <v>1.53</v>
+      </c>
+      <c r="S23">
+        <v>2.38</v>
+      </c>
+      <c r="T23">
+        <v>1.4</v>
+      </c>
+      <c r="U23">
+        <v>1.22</v>
+      </c>
+      <c r="V23">
+        <v>1.66</v>
+      </c>
+      <c r="W23">
+        <v>1.62</v>
+      </c>
+      <c r="X23">
+        <v>0.9</v>
+      </c>
+      <c r="Y23">
+        <v>1.15</v>
+      </c>
+      <c r="Z23">
+        <v>1.36</v>
+      </c>
+      <c r="AA23">
+        <v>2.51</v>
+      </c>
+      <c r="AB23">
+        <v>1.71</v>
+      </c>
+      <c r="AC23">
+        <v>7.5</v>
+      </c>
+      <c r="AD23">
+        <v>2.48</v>
+      </c>
+      <c r="AE23">
+        <v>1.26</v>
+      </c>
+      <c r="AF23">
+        <v>1.48</v>
+      </c>
+      <c r="AG23">
+        <v>1.84</v>
+      </c>
+      <c r="AH23">
+        <v>2.3</v>
+      </c>
+      <c r="AI23">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45168</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24">
+        <v>2.19</v>
+      </c>
+      <c r="H24">
+        <v>3.87</v>
+      </c>
+      <c r="I24">
+        <v>3.18</v>
+      </c>
+      <c r="J24">
+        <v>1.03</v>
+      </c>
+      <c r="K24">
+        <v>15</v>
+      </c>
+      <c r="L24">
+        <v>1.22</v>
+      </c>
+      <c r="M24">
+        <v>4.2</v>
+      </c>
+      <c r="N24">
+        <v>1.67</v>
+      </c>
+      <c r="O24">
+        <v>2.1</v>
+      </c>
+      <c r="P24">
+        <v>1.33</v>
+      </c>
+      <c r="Q24">
+        <v>3.25</v>
+      </c>
+      <c r="R24">
+        <v>1.62</v>
+      </c>
+      <c r="S24">
+        <v>2.2</v>
+      </c>
+      <c r="T24">
+        <v>1.38</v>
+      </c>
+      <c r="U24">
+        <v>1.22</v>
+      </c>
+      <c r="V24">
+        <v>1.68</v>
+      </c>
+      <c r="W24">
+        <v>2.17</v>
+      </c>
+      <c r="X24">
+        <v>0.82</v>
+      </c>
+      <c r="Y24">
+        <v>1.48</v>
+      </c>
+      <c r="Z24">
+        <v>1.4</v>
+      </c>
+      <c r="AA24">
+        <v>2.88</v>
+      </c>
+      <c r="AB24">
+        <v>1.74</v>
+      </c>
+      <c r="AC24">
+        <v>7.5</v>
+      </c>
+      <c r="AD24">
+        <v>2.45</v>
+      </c>
+      <c r="AE24">
+        <v>1.26</v>
+      </c>
+      <c r="AF24">
+        <v>1.49</v>
+      </c>
+      <c r="AG24">
+        <v>1.84</v>
+      </c>
+      <c r="AH24">
+        <v>2.3</v>
+      </c>
+      <c r="AI24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45168</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25">
+        <v>1.69</v>
+      </c>
+      <c r="H25">
+        <v>4.19</v>
+      </c>
+      <c r="I25">
+        <v>4.98</v>
+      </c>
+      <c r="J25">
+        <v>1.04</v>
+      </c>
+      <c r="K25">
+        <v>12</v>
+      </c>
+      <c r="L25">
+        <v>1.28</v>
+      </c>
+      <c r="M25">
+        <v>3.6</v>
+      </c>
+      <c r="N25">
+        <v>1.85</v>
+      </c>
+      <c r="O25">
+        <v>1.85</v>
+      </c>
+      <c r="P25">
+        <v>1.36</v>
+      </c>
+      <c r="Q25">
+        <v>3</v>
+      </c>
+      <c r="R25">
+        <v>1.91</v>
+      </c>
+      <c r="S25">
+        <v>1.91</v>
+      </c>
+      <c r="T25">
+        <v>1.16</v>
+      </c>
+      <c r="U25">
+        <v>1.2</v>
+      </c>
+      <c r="V25">
+        <v>2.3</v>
+      </c>
+      <c r="W25">
+        <v>1.18</v>
+      </c>
+      <c r="X25">
+        <v>0.75</v>
+      </c>
+      <c r="Y25">
+        <v>1.68</v>
+      </c>
+      <c r="Z25">
+        <v>1.13</v>
+      </c>
+      <c r="AA25">
+        <v>2.81</v>
+      </c>
+      <c r="AB25">
+        <v>1.47</v>
+      </c>
+      <c r="AC25">
+        <v>8</v>
+      </c>
+      <c r="AD25">
+        <v>3.25</v>
+      </c>
+      <c r="AE25">
+        <v>1.29</v>
+      </c>
+      <c r="AF25">
+        <v>1.54</v>
+      </c>
+      <c r="AG25">
+        <v>1.92</v>
+      </c>
+      <c r="AH25">
+        <v>2.43</v>
+      </c>
+      <c r="AI25">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45168</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26">
+        <v>1.89</v>
+      </c>
+      <c r="H26">
+        <v>3.78</v>
+      </c>
+      <c r="I26">
+        <v>4.21</v>
+      </c>
+      <c r="J26">
+        <v>1.02</v>
+      </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
+      <c r="L26">
+        <v>1.22</v>
+      </c>
+      <c r="M26">
+        <v>3.8</v>
+      </c>
+      <c r="N26">
+        <v>1.84</v>
+      </c>
+      <c r="O26">
+        <v>2.06</v>
+      </c>
+      <c r="P26">
+        <v>1.33</v>
+      </c>
+      <c r="Q26">
+        <v>3.25</v>
+      </c>
+      <c r="R26">
+        <v>1.7</v>
+      </c>
+      <c r="S26">
+        <v>2.05</v>
+      </c>
+      <c r="T26">
+        <v>1.17</v>
+      </c>
+      <c r="U26">
+        <v>1.22</v>
+      </c>
+      <c r="V26">
+        <v>2.38</v>
+      </c>
+      <c r="W26">
+        <v>2.15</v>
+      </c>
+      <c r="X26">
+        <v>0.83</v>
+      </c>
+      <c r="Y26">
+        <v>1.71</v>
+      </c>
+      <c r="Z26">
+        <v>1.22</v>
+      </c>
+      <c r="AA26">
+        <v>2.93</v>
+      </c>
+      <c r="AB26">
+        <v>1.54</v>
+      </c>
+      <c r="AC26">
+        <v>8</v>
+      </c>
+      <c r="AD26">
+        <v>2.95</v>
+      </c>
+      <c r="AE26">
+        <v>1.28</v>
+      </c>
+      <c r="AF26">
+        <v>1.52</v>
+      </c>
+      <c r="AG26">
+        <v>1.9</v>
+      </c>
+      <c r="AH26">
+        <v>2.38</v>
+      </c>
+      <c r="AI26">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45168</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27">
+        <v>1.18</v>
+      </c>
+      <c r="H27">
+        <v>7.32</v>
+      </c>
+      <c r="I27">
+        <v>14.63</v>
+      </c>
+      <c r="J27">
+        <v>1.03</v>
+      </c>
+      <c r="K27">
+        <v>12</v>
+      </c>
+      <c r="L27">
+        <v>1.22</v>
+      </c>
+      <c r="M27">
+        <v>3.9</v>
+      </c>
+      <c r="N27">
+        <v>1.7</v>
+      </c>
+      <c r="O27">
+        <v>2.05</v>
+      </c>
+      <c r="P27">
+        <v>1.32</v>
+      </c>
+      <c r="Q27">
+        <v>3.1</v>
+      </c>
+      <c r="R27">
+        <v>2.45</v>
+      </c>
+      <c r="S27">
+        <v>1.47</v>
+      </c>
+      <c r="T27">
+        <v>1.03</v>
+      </c>
+      <c r="U27">
+        <v>1.12</v>
+      </c>
+      <c r="V27">
+        <v>4.2</v>
+      </c>
+      <c r="W27">
+        <v>2.44</v>
+      </c>
+      <c r="X27">
+        <v>1.33</v>
+      </c>
+      <c r="Y27">
+        <v>2.22</v>
+      </c>
+      <c r="Z27">
+        <v>1.06</v>
+      </c>
+      <c r="AA27">
+        <v>3.28</v>
+      </c>
+      <c r="AB27">
+        <v>1.19</v>
+      </c>
+      <c r="AC27">
+        <v>12</v>
+      </c>
+      <c r="AD27">
+        <v>6.75</v>
+      </c>
+      <c r="AE27">
+        <v>1.27</v>
+      </c>
+      <c r="AF27">
+        <v>1.5</v>
+      </c>
+      <c r="AG27">
+        <v>1.85</v>
+      </c>
+      <c r="AH27">
+        <v>2.32</v>
+      </c>
+      <c r="AI27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45168</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28">
+        <v>2.74</v>
+      </c>
+      <c r="H28">
+        <v>3.03</v>
+      </c>
+      <c r="I28">
+        <v>2.92</v>
+      </c>
+      <c r="J28">
+        <v>1.09</v>
+      </c>
+      <c r="K28">
+        <v>6.83</v>
+      </c>
+      <c r="L28">
+        <v>1.5</v>
+      </c>
+      <c r="M28">
+        <v>2.45</v>
+      </c>
+      <c r="N28">
+        <v>2.38</v>
+      </c>
+      <c r="O28">
+        <v>1.55</v>
+      </c>
+      <c r="P28">
+        <v>1.55</v>
+      </c>
+      <c r="Q28">
+        <v>2.25</v>
+      </c>
+      <c r="R28">
+        <v>2.1</v>
+      </c>
+      <c r="S28">
+        <v>1.63</v>
+      </c>
+      <c r="T28">
+        <v>1.42</v>
+      </c>
+      <c r="U28">
+        <v>1.37</v>
+      </c>
+      <c r="V28">
+        <v>1.44</v>
+      </c>
+      <c r="W28">
+        <v>1.89</v>
+      </c>
+      <c r="X28">
+        <v>1.78</v>
+      </c>
+      <c r="Y28">
+        <v>1.64</v>
+      </c>
+      <c r="Z28">
+        <v>1.18</v>
+      </c>
+      <c r="AA28">
+        <v>2.82</v>
+      </c>
+      <c r="AB28">
+        <v>1.84</v>
+      </c>
+      <c r="AC28">
+        <v>7.5</v>
+      </c>
+      <c r="AD28">
+        <v>2.28</v>
+      </c>
+      <c r="AE28">
+        <v>1.43</v>
+      </c>
+      <c r="AF28">
+        <v>1.76</v>
+      </c>
+      <c r="AG28">
+        <v>2.25</v>
+      </c>
+      <c r="AH28">
+        <v>2.95</v>
+      </c>
+      <c r="AI28">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45168</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29">
+        <v>2.05</v>
+      </c>
+      <c r="H29">
+        <v>3.76</v>
+      </c>
+      <c r="I29">
+        <v>3.63</v>
+      </c>
+      <c r="J29">
+        <v>1.01</v>
+      </c>
+      <c r="K29">
+        <v>9.9</v>
+      </c>
+      <c r="L29">
+        <v>1.18</v>
+      </c>
+      <c r="M29">
+        <v>4.15</v>
+      </c>
+      <c r="N29">
+        <v>1.75</v>
+      </c>
+      <c r="O29">
+        <v>1.95</v>
+      </c>
+      <c r="P29">
+        <v>1.3</v>
+      </c>
+      <c r="Q29">
+        <v>3.4</v>
+      </c>
+      <c r="R29">
+        <v>1.62</v>
+      </c>
+      <c r="S29">
+        <v>2.2</v>
+      </c>
+      <c r="T29">
+        <v>1.3</v>
+      </c>
+      <c r="U29">
+        <v>1.27</v>
+      </c>
+      <c r="V29">
+        <v>1.81</v>
+      </c>
+      <c r="W29">
+        <v>2.08</v>
+      </c>
+      <c r="X29">
+        <v>0.67</v>
+      </c>
+      <c r="Y29">
+        <v>1.42</v>
+      </c>
+      <c r="Z29">
+        <v>1.27</v>
+      </c>
+      <c r="AA29">
+        <v>2.69</v>
+      </c>
+      <c r="AB29">
+        <v>1.64</v>
+      </c>
+      <c r="AC29">
+        <v>8</v>
+      </c>
+      <c r="AD29">
+        <v>2.65</v>
+      </c>
+      <c r="AE29">
+        <v>1.26</v>
+      </c>
+      <c r="AF29">
+        <v>1.48</v>
+      </c>
+      <c r="AG29">
+        <v>1.84</v>
+      </c>
+      <c r="AH29">
+        <v>2.3</v>
+      </c>
+      <c r="AI29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45168</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30">
+        <v>2.27</v>
+      </c>
+      <c r="H30">
+        <v>3.83</v>
+      </c>
+      <c r="I30">
+        <v>3.07</v>
+      </c>
+      <c r="J30">
+        <v>1.03</v>
+      </c>
+      <c r="K30">
+        <v>15</v>
+      </c>
+      <c r="L30">
+        <v>1.22</v>
+      </c>
+      <c r="M30">
+        <v>4.2</v>
+      </c>
+      <c r="N30">
+        <v>1.67</v>
+      </c>
+      <c r="O30">
+        <v>2.1</v>
+      </c>
+      <c r="P30">
+        <v>1.33</v>
+      </c>
+      <c r="Q30">
+        <v>3.25</v>
+      </c>
+      <c r="R30">
+        <v>1.62</v>
+      </c>
+      <c r="S30">
+        <v>2.2</v>
+      </c>
+      <c r="T30">
+        <v>1.45</v>
+      </c>
+      <c r="U30">
+        <v>1.25</v>
+      </c>
+      <c r="V30">
+        <v>1.6</v>
+      </c>
+      <c r="W30">
+        <v>1.5</v>
+      </c>
+      <c r="X30">
+        <v>1.75</v>
+      </c>
+      <c r="Y30">
+        <v>1.61</v>
+      </c>
+      <c r="Z30">
+        <v>1.52</v>
+      </c>
+      <c r="AA30">
+        <v>3.13</v>
+      </c>
+      <c r="AB30">
+        <v>1.78</v>
+      </c>
+      <c r="AC30">
+        <v>7.5</v>
+      </c>
+      <c r="AD30">
+        <v>2.35</v>
+      </c>
+      <c r="AE30">
+        <v>1.28</v>
+      </c>
+      <c r="AF30">
+        <v>1.52</v>
+      </c>
+      <c r="AG30">
+        <v>1.89</v>
+      </c>
+      <c r="AH30">
         <v>2.4</v>
       </c>
-      <c r="AI21">
+      <c r="AI30">
         <v>3.15</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-08-30_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-30_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -211,63 +211,63 @@
     <t>Catanzaro</t>
   </si>
   <si>
+    <t>AEK Athens</t>
+  </si>
+  <si>
+    <t>København</t>
+  </si>
+  <si>
     <t>PSV</t>
   </si>
   <si>
-    <t>København</t>
-  </si>
-  <si>
-    <t>AEK Athens</t>
-  </si>
-  <si>
     <t>Novorizontino</t>
   </si>
   <si>
+    <t>New York City</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>New England Revolution</t>
+  </si>
+  <si>
     <t>Atlanta United FC</t>
   </si>
   <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
     <t>Inter Miami</t>
   </si>
   <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>Toronto</t>
-  </si>
-  <si>
-    <t>New York City</t>
-  </si>
-  <si>
-    <t>New England Revolution</t>
+    <t>Racing Club</t>
+  </si>
+  <si>
+    <t>St. Louis City</t>
+  </si>
+  <si>
+    <t>Minnesota United</t>
+  </si>
+  <si>
+    <t>Palmeiras</t>
+  </si>
+  <si>
+    <t>Chicago Fire</t>
   </si>
   <si>
     <t>Austin</t>
   </si>
   <si>
-    <t>Chicago Fire</t>
-  </si>
-  <si>
     <t>Houston Dynamo</t>
   </si>
   <si>
-    <t>Minnesota United</t>
-  </si>
-  <si>
-    <t>St. Louis City</t>
-  </si>
-  <si>
-    <t>Palmeiras</t>
-  </si>
-  <si>
-    <t>Racing Club</t>
+    <t>Portland Timbers</t>
   </si>
   <si>
     <t>SJ Earthquakes</t>
   </si>
   <si>
-    <t>Portland Timbers</t>
-  </si>
-  <si>
     <t>Jeonnam Dragons</t>
   </si>
   <si>
@@ -298,61 +298,61 @@
     <t>Spezia</t>
   </si>
   <si>
+    <t>Royal Antwerp FC</t>
+  </si>
+  <si>
+    <t>Raków Częstochowa</t>
+  </si>
+  <si>
     <t>Rangers</t>
   </si>
   <si>
-    <t>Raków Częstochowa</t>
-  </si>
-  <si>
-    <t>Royal Antwerp FC</t>
-  </si>
-  <si>
     <t>Ituano</t>
   </si>
   <si>
+    <t>Montreal Impact</t>
+  </si>
+  <si>
+    <t>Philadelphia Union</t>
+  </si>
+  <si>
+    <t>New York RB</t>
+  </si>
+  <si>
     <t>FC Cincinnati</t>
   </si>
   <si>
+    <t>Orlando City</t>
+  </si>
+  <si>
     <t>Nashville SC</t>
   </si>
   <si>
-    <t>Orlando City</t>
-  </si>
-  <si>
-    <t>Philadelphia Union</t>
-  </si>
-  <si>
-    <t>Montreal Impact</t>
-  </si>
-  <si>
-    <t>New York RB</t>
+    <t>Boca Juniors</t>
+  </si>
+  <si>
+    <t>FC Dallas</t>
+  </si>
+  <si>
+    <t>Colorado Rapids</t>
+  </si>
+  <si>
+    <t>Deportivo Pereira</t>
+  </si>
+  <si>
+    <t>Vancouver Whitecaps</t>
   </si>
   <si>
     <t>Seattle Sounders</t>
   </si>
   <si>
-    <t>Vancouver Whitecaps</t>
-  </si>
-  <si>
     <t>Columbus Crew</t>
   </si>
   <si>
-    <t>Colorado Rapids</t>
-  </si>
-  <si>
-    <t>FC Dallas</t>
-  </si>
-  <si>
-    <t>Deportivo Pereira</t>
-  </si>
-  <si>
-    <t>Boca Juniors</t>
+    <t>Real Salt Lake</t>
   </si>
   <si>
     <t>LA Galaxy</t>
-  </si>
-  <si>
-    <t>Real Salt Lake</t>
   </si>
 </sst>
 </file>
@@ -847,13 +847,13 @@
         <v>84</v>
       </c>
       <c r="G2">
-        <v>2.85</v>
+        <v>2.55</v>
       </c>
       <c r="H2">
-        <v>3.53</v>
+        <v>3.22</v>
       </c>
       <c r="I2">
-        <v>2.51</v>
+        <v>2.23</v>
       </c>
       <c r="J2">
         <v>1.05</v>
@@ -868,10 +868,10 @@
         <v>3.15</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="O2">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="P2">
         <v>1.42</v>
@@ -895,10 +895,10 @@
         <v>1.45</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="Y2">
         <v>1.28</v>
@@ -954,13 +954,13 @@
         <v>85</v>
       </c>
       <c r="G3">
-        <v>2.56</v>
+        <v>2.27</v>
       </c>
       <c r="H3">
-        <v>3.06</v>
+        <v>2.97</v>
       </c>
       <c r="I3">
-        <v>3.16</v>
+        <v>2.68</v>
       </c>
       <c r="J3">
         <v>1.07</v>
@@ -1002,10 +1002,10 @@
         <v>1.48</v>
       </c>
       <c r="W3">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="X3">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="Y3">
         <v>1.57</v>
@@ -1061,13 +1061,13 @@
         <v>86</v>
       </c>
       <c r="G4">
-        <v>4.02</v>
+        <v>3.35</v>
       </c>
       <c r="H4">
-        <v>3.48</v>
+        <v>3.1</v>
       </c>
       <c r="I4">
-        <v>2.01</v>
+        <v>1.91</v>
       </c>
       <c r="J4">
         <v>1.05</v>
@@ -1082,10 +1082,10 @@
         <v>3.05</v>
       </c>
       <c r="N4">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O4">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P4">
         <v>1.4</v>
@@ -1109,10 +1109,10 @@
         <v>1.35</v>
       </c>
       <c r="W4">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="X4">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="Y4">
         <v>1.31</v>
@@ -1168,13 +1168,13 @@
         <v>87</v>
       </c>
       <c r="G5">
-        <v>3.37</v>
+        <v>3.12</v>
       </c>
       <c r="H5">
-        <v>3.49</v>
+        <v>3.4</v>
       </c>
       <c r="I5">
-        <v>2.25</v>
+        <v>2.01</v>
       </c>
       <c r="J5">
         <v>1.06</v>
@@ -1189,10 +1189,10 @@
         <v>3.25</v>
       </c>
       <c r="N5">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="O5">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="P5">
         <v>1.35</v>
@@ -1275,13 +1275,13 @@
         <v>88</v>
       </c>
       <c r="G6">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="H6">
-        <v>4.16</v>
+        <v>3.75</v>
       </c>
       <c r="I6">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="J6">
         <v>1.04</v>
@@ -1296,10 +1296,10 @@
         <v>3.95</v>
       </c>
       <c r="N6">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="O6">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="P6">
         <v>1.34</v>
@@ -1382,13 +1382,13 @@
         <v>89</v>
       </c>
       <c r="G7">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="H7">
-        <v>3.79</v>
+        <v>3.8</v>
       </c>
       <c r="I7">
-        <v>3.43</v>
+        <v>3</v>
       </c>
       <c r="J7">
         <v>1.03</v>
@@ -1489,13 +1489,13 @@
         <v>90</v>
       </c>
       <c r="G8">
-        <v>3.37</v>
+        <v>3.15</v>
       </c>
       <c r="H8">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I8">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="J8">
         <v>1.08</v>
@@ -1510,10 +1510,10 @@
         <v>2.8</v>
       </c>
       <c r="N8">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="O8">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="P8">
         <v>1.48</v>
@@ -1596,13 +1596,13 @@
         <v>91</v>
       </c>
       <c r="G9">
-        <v>2.23</v>
+        <v>2.15</v>
       </c>
       <c r="H9">
-        <v>3.52</v>
+        <v>3.3</v>
       </c>
       <c r="I9">
-        <v>3.38</v>
+        <v>3.3</v>
       </c>
       <c r="J9">
         <v>1.05</v>
@@ -1617,10 +1617,10 @@
         <v>3</v>
       </c>
       <c r="N9">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="O9">
-        <v>1.82</v>
+        <v>1.69</v>
       </c>
       <c r="P9">
         <v>1.43</v>
@@ -1703,13 +1703,13 @@
         <v>92</v>
       </c>
       <c r="G10">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="H10">
-        <v>3.08</v>
+        <v>3.05</v>
       </c>
       <c r="I10">
-        <v>3.58</v>
+        <v>3.3</v>
       </c>
       <c r="J10">
         <v>1.09</v>
@@ -1724,10 +1724,10 @@
         <v>2.63</v>
       </c>
       <c r="N10">
-        <v>2.3</v>
+        <v>2.21</v>
       </c>
       <c r="O10">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P10">
         <v>1.5</v>
@@ -1810,13 +1810,13 @@
         <v>93</v>
       </c>
       <c r="G11">
-        <v>3.13</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>3.34</v>
+        <v>3.25</v>
       </c>
       <c r="I11">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J11">
         <v>1.08</v>
@@ -1831,10 +1831,10 @@
         <v>2.63</v>
       </c>
       <c r="N11">
-        <v>2.3</v>
+        <v>2.21</v>
       </c>
       <c r="O11">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="P11">
         <v>1.5</v>
@@ -1917,91 +1917,91 @@
         <v>94</v>
       </c>
       <c r="G12">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="H12">
-        <v>4.63</v>
+        <v>3.7</v>
       </c>
       <c r="I12">
-        <v>5.92</v>
+        <v>4.8</v>
       </c>
       <c r="J12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K12">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L12">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="M12">
-        <v>4.75</v>
+        <v>3.78</v>
       </c>
       <c r="N12">
-        <v>1.6</v>
+        <v>1.79</v>
       </c>
       <c r="O12">
-        <v>2.25</v>
+        <v>1.81</v>
       </c>
       <c r="P12">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="Q12">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="R12">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T12">
-        <v>1.12</v>
+        <v>1.23</v>
       </c>
       <c r="U12">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="V12">
-        <v>2.65</v>
+        <v>1.95</v>
       </c>
       <c r="W12">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="X12">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="Y12">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="Z12">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>4.06</v>
+        <v>2.4</v>
       </c>
       <c r="AB12">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AC12">
         <v>8</v>
       </c>
       <c r="AD12">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AE12">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AF12">
-        <v>1.32</v>
+        <v>1.67</v>
       </c>
       <c r="AG12">
-        <v>1.61</v>
+        <v>2</v>
       </c>
       <c r="AH12">
-        <v>2</v>
+        <v>2.85</v>
       </c>
       <c r="AI12">
-        <v>2.62</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -2024,13 +2024,13 @@
         <v>95</v>
       </c>
       <c r="G13">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="H13">
-        <v>3.98</v>
+        <v>3.95</v>
       </c>
       <c r="I13">
-        <v>5.69</v>
+        <v>5.5</v>
       </c>
       <c r="J13">
         <v>1.03</v>
@@ -2045,10 +2045,10 @@
         <v>3.3</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="O13">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="P13">
         <v>1.4</v>
@@ -2131,91 +2131,91 @@
         <v>96</v>
       </c>
       <c r="G14">
-        <v>1.77</v>
+        <v>1.55</v>
       </c>
       <c r="H14">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="I14">
-        <v>4.34</v>
+        <v>5.5</v>
       </c>
       <c r="J14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K14">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L14">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="M14">
-        <v>3.78</v>
+        <v>4.75</v>
       </c>
       <c r="N14">
-        <v>1.86</v>
+        <v>1.61</v>
       </c>
       <c r="O14">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="P14">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="Q14">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="R14">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S14">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T14">
-        <v>1.23</v>
+        <v>1.12</v>
       </c>
       <c r="U14">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="V14">
-        <v>1.95</v>
+        <v>2.65</v>
       </c>
       <c r="W14">
-        <v>1.33</v>
+        <v>2.33</v>
       </c>
       <c r="X14">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="Y14">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AA14">
-        <v>2.4</v>
+        <v>4.06</v>
       </c>
       <c r="AB14">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AC14">
         <v>8</v>
       </c>
       <c r="AD14">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AE14">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AF14">
-        <v>1.67</v>
+        <v>1.32</v>
       </c>
       <c r="AG14">
+        <v>1.61</v>
+      </c>
+      <c r="AH14">
         <v>2</v>
       </c>
-      <c r="AH14">
-        <v>2.85</v>
-      </c>
       <c r="AI14">
-        <v>3.6</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2238,13 +2238,13 @@
         <v>97</v>
       </c>
       <c r="G15">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H15">
-        <v>3.69</v>
+        <v>3.6</v>
       </c>
       <c r="I15">
-        <v>6.75</v>
+        <v>5.5</v>
       </c>
       <c r="J15">
         <v>1.08</v>
@@ -2259,10 +2259,10 @@
         <v>2.65</v>
       </c>
       <c r="N15">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="O15">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P15">
         <v>1.5</v>
@@ -2345,91 +2345,91 @@
         <v>98</v>
       </c>
       <c r="G16">
-        <v>2.11</v>
+        <v>1.58</v>
       </c>
       <c r="H16">
-        <v>3.89</v>
+        <v>3.83</v>
       </c>
       <c r="I16">
-        <v>3.37</v>
+        <v>4.55</v>
       </c>
       <c r="J16">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K16">
-        <v>17</v>
+        <v>10.25</v>
       </c>
       <c r="L16">
+        <v>1.23</v>
+      </c>
+      <c r="M16">
+        <v>3.64</v>
+      </c>
+      <c r="N16">
+        <v>1.78</v>
+      </c>
+      <c r="O16">
+        <v>1.92</v>
+      </c>
+      <c r="P16">
+        <v>1.36</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <v>1.8</v>
+      </c>
+      <c r="S16">
+        <v>1.95</v>
+      </c>
+      <c r="T16">
+        <v>1.17</v>
+      </c>
+      <c r="U16">
+        <v>1.24</v>
+      </c>
+      <c r="V16">
+        <v>2.22</v>
+      </c>
+      <c r="W16">
+        <v>1.45</v>
+      </c>
+      <c r="X16">
+        <v>0.62</v>
+      </c>
+      <c r="Y16">
+        <v>1.63</v>
+      </c>
+      <c r="Z16">
         <v>1.2</v>
       </c>
-      <c r="M16">
-        <v>4.5</v>
-      </c>
-      <c r="N16">
-        <v>1.57</v>
-      </c>
-      <c r="O16">
-        <v>2.25</v>
-      </c>
-      <c r="P16">
+      <c r="AA16">
+        <v>2.83</v>
+      </c>
+      <c r="AB16">
+        <v>1.47</v>
+      </c>
+      <c r="AC16">
+        <v>8</v>
+      </c>
+      <c r="AD16">
+        <v>3.25</v>
+      </c>
+      <c r="AE16">
         <v>1.3</v>
       </c>
-      <c r="Q16">
-        <v>3.4</v>
-      </c>
-      <c r="R16">
-        <v>1.53</v>
-      </c>
-      <c r="S16">
-        <v>2.38</v>
-      </c>
-      <c r="T16">
-        <v>1.4</v>
-      </c>
-      <c r="U16">
-        <v>1.22</v>
-      </c>
-      <c r="V16">
-        <v>1.68</v>
-      </c>
-      <c r="W16">
-        <v>2.08</v>
-      </c>
-      <c r="X16">
-        <v>1.42</v>
-      </c>
-      <c r="Y16">
-        <v>1.73</v>
-      </c>
-      <c r="Z16">
-        <v>1.35</v>
-      </c>
-      <c r="AA16">
-        <v>3.08</v>
-      </c>
-      <c r="AB16">
-        <v>1.71</v>
-      </c>
-      <c r="AC16">
-        <v>7.5</v>
-      </c>
-      <c r="AD16">
-        <v>2.5</v>
-      </c>
-      <c r="AE16">
-        <v>1.27</v>
-      </c>
       <c r="AF16">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AG16">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AH16">
-        <v>2.35</v>
+        <v>2.48</v>
       </c>
       <c r="AI16">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2452,37 +2452,37 @@
         <v>99</v>
       </c>
       <c r="G17">
-        <v>1.54</v>
+        <v>2.88</v>
       </c>
       <c r="H17">
-        <v>4.59</v>
+        <v>3.68</v>
       </c>
       <c r="I17">
-        <v>6.07</v>
+        <v>2.03</v>
       </c>
       <c r="J17">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L17">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="M17">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="N17">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="O17">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="P17">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="Q17">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="R17">
         <v>1.62</v>
@@ -2491,52 +2491,52 @@
         <v>2.2</v>
       </c>
       <c r="T17">
+        <v>1.72</v>
+      </c>
+      <c r="U17">
         <v>1.25</v>
       </c>
-      <c r="U17">
-        <v>1.22</v>
-      </c>
       <c r="V17">
-        <v>2.15</v>
+        <v>1.36</v>
       </c>
       <c r="W17">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
       <c r="X17">
-        <v>0.92</v>
+        <v>1.31</v>
       </c>
       <c r="Y17">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="Z17">
-        <v>1.09</v>
+        <v>1.41</v>
       </c>
       <c r="AA17">
+        <v>2.81</v>
+      </c>
+      <c r="AB17">
+        <v>2.2</v>
+      </c>
+      <c r="AC17">
+        <v>7.5</v>
+      </c>
+      <c r="AD17">
+        <v>1.88</v>
+      </c>
+      <c r="AE17">
+        <v>1.28</v>
+      </c>
+      <c r="AF17">
+        <v>1.52</v>
+      </c>
+      <c r="AG17">
+        <v>1.88</v>
+      </c>
+      <c r="AH17">
         <v>2.4</v>
       </c>
-      <c r="AB17">
-        <v>1.43</v>
-      </c>
-      <c r="AC17">
-        <v>8.5</v>
-      </c>
-      <c r="AD17">
-        <v>3.65</v>
-      </c>
-      <c r="AE17">
-        <v>1.25</v>
-      </c>
-      <c r="AF17">
-        <v>1.48</v>
-      </c>
-      <c r="AG17">
-        <v>1.81</v>
-      </c>
-      <c r="AH17">
-        <v>2.28</v>
-      </c>
       <c r="AI17">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2559,31 +2559,31 @@
         <v>100</v>
       </c>
       <c r="G18">
-        <v>2.4</v>
+        <v>1.99</v>
       </c>
       <c r="H18">
-        <v>3.73</v>
+        <v>3.4</v>
       </c>
       <c r="I18">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="J18">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K18">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L18">
         <v>1.22</v>
       </c>
       <c r="M18">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N18">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O18">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="P18">
         <v>1.33</v>
@@ -2592,52 +2592,52 @@
         <v>3.25</v>
       </c>
       <c r="R18">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="S18">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="T18">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="U18">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="V18">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="W18">
-        <v>1.42</v>
+        <v>2.5</v>
       </c>
       <c r="X18">
-        <v>1.75</v>
+        <v>0.64</v>
       </c>
       <c r="Y18">
-        <v>1.31</v>
+        <v>1.55</v>
       </c>
       <c r="Z18">
-        <v>1.28</v>
+        <v>1.49</v>
       </c>
       <c r="AA18">
-        <v>2.59</v>
+        <v>3.04</v>
       </c>
       <c r="AB18">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="AC18">
         <v>7.5</v>
       </c>
       <c r="AD18">
-        <v>2.18</v>
+        <v>2.7</v>
       </c>
       <c r="AE18">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AF18">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="AG18">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="AH18">
         <v>2.43</v>
@@ -2666,91 +2666,91 @@
         <v>101</v>
       </c>
       <c r="G19">
-        <v>3.42</v>
+        <v>2.01</v>
       </c>
       <c r="H19">
-        <v>3.77</v>
+        <v>3.65</v>
       </c>
       <c r="I19">
-        <v>2.13</v>
+        <v>2.95</v>
       </c>
       <c r="J19">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K19">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L19">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="M19">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N19">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="O19">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="P19">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="R19">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S19">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="T19">
-        <v>1.72</v>
+        <v>1.4</v>
       </c>
       <c r="U19">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V19">
-        <v>1.36</v>
+        <v>1.68</v>
       </c>
       <c r="W19">
-        <v>1.15</v>
+        <v>2.08</v>
       </c>
       <c r="X19">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="Y19">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="Z19">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AA19">
-        <v>2.81</v>
+        <v>3.08</v>
       </c>
       <c r="AB19">
-        <v>2.2</v>
+        <v>1.71</v>
       </c>
       <c r="AC19">
         <v>7.5</v>
       </c>
       <c r="AD19">
-        <v>1.88</v>
+        <v>2.5</v>
       </c>
       <c r="AE19">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AF19">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AG19">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="AH19">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="AI19">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2773,91 +2773,91 @@
         <v>102</v>
       </c>
       <c r="G20">
+        <v>2.2</v>
+      </c>
+      <c r="H20">
+        <v>3.63</v>
+      </c>
+      <c r="I20">
+        <v>2.62</v>
+      </c>
+      <c r="J20">
+        <v>1.02</v>
+      </c>
+      <c r="K20">
+        <v>10</v>
+      </c>
+      <c r="L20">
+        <v>1.22</v>
+      </c>
+      <c r="M20">
+        <v>3.8</v>
+      </c>
+      <c r="N20">
         <v>1.72</v>
       </c>
-      <c r="H20">
-        <v>3.96</v>
-      </c>
-      <c r="I20">
-        <v>5.04</v>
-      </c>
-      <c r="J20">
-        <v>1.01</v>
-      </c>
-      <c r="K20">
-        <v>10.25</v>
-      </c>
-      <c r="L20">
-        <v>1.23</v>
-      </c>
-      <c r="M20">
-        <v>3.64</v>
-      </c>
-      <c r="N20">
-        <v>1.92</v>
-      </c>
       <c r="O20">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="P20">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R20">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="S20">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="T20">
-        <v>1.17</v>
+        <v>1.44</v>
       </c>
       <c r="U20">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="V20">
-        <v>2.22</v>
+        <v>1.57</v>
       </c>
       <c r="W20">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="X20">
-        <v>0.62</v>
+        <v>1.75</v>
       </c>
       <c r="Y20">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="Z20">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="AA20">
-        <v>2.83</v>
+        <v>2.59</v>
       </c>
       <c r="AB20">
-        <v>1.47</v>
+        <v>1.9</v>
       </c>
       <c r="AC20">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD20">
-        <v>3.25</v>
+        <v>2.18</v>
       </c>
       <c r="AE20">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AF20">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AG20">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="AH20">
-        <v>2.48</v>
+        <v>2.43</v>
       </c>
       <c r="AI20">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2880,96 +2880,96 @@
         <v>103</v>
       </c>
       <c r="G21">
-        <v>2.1</v>
+        <v>1.52</v>
       </c>
       <c r="H21">
-        <v>3.64</v>
+        <v>4.2</v>
       </c>
       <c r="I21">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="J21">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K21">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L21">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N21">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="O21">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="P21">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q21">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R21">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S21">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="T21">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U21">
         <v>1.22</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="W21">
-        <v>2.5</v>
+        <v>1.27</v>
       </c>
       <c r="X21">
-        <v>0.64</v>
+        <v>0.92</v>
       </c>
       <c r="Y21">
-        <v>1.55</v>
+        <v>1.31</v>
       </c>
       <c r="Z21">
-        <v>1.49</v>
+        <v>1.09</v>
       </c>
       <c r="AA21">
-        <v>3.04</v>
+        <v>2.4</v>
       </c>
       <c r="AB21">
-        <v>1.63</v>
+        <v>1.43</v>
       </c>
       <c r="AC21">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD21">
-        <v>2.7</v>
+        <v>3.65</v>
       </c>
       <c r="AE21">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AF21">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AG21">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="AH21">
-        <v>2.43</v>
+        <v>2.28</v>
       </c>
       <c r="AI21">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2">
         <v>45168</v>
@@ -2987,91 +2987,91 @@
         <v>104</v>
       </c>
       <c r="G22">
+        <v>2.5</v>
+      </c>
+      <c r="H22">
+        <v>2.97</v>
+      </c>
+      <c r="I22">
+        <v>2.65</v>
+      </c>
+      <c r="J22">
+        <v>1.09</v>
+      </c>
+      <c r="K22">
+        <v>6.83</v>
+      </c>
+      <c r="L22">
+        <v>1.58</v>
+      </c>
+      <c r="M22">
+        <v>2.22</v>
+      </c>
+      <c r="N22">
+        <v>2.38</v>
+      </c>
+      <c r="O22">
+        <v>1.55</v>
+      </c>
+      <c r="P22">
+        <v>1.55</v>
+      </c>
+      <c r="Q22">
+        <v>2.25</v>
+      </c>
+      <c r="R22">
         <v>2.1</v>
       </c>
-      <c r="H22">
-        <v>3.74</v>
-      </c>
-      <c r="I22">
-        <v>3.51</v>
-      </c>
-      <c r="J22">
-        <v>1.04</v>
-      </c>
-      <c r="K22">
-        <v>13</v>
-      </c>
-      <c r="L22">
-        <v>1.28</v>
-      </c>
-      <c r="M22">
-        <v>3.6</v>
-      </c>
-      <c r="N22">
-        <v>1.75</v>
-      </c>
-      <c r="O22">
-        <v>1.95</v>
-      </c>
-      <c r="P22">
-        <v>1.36</v>
-      </c>
-      <c r="Q22">
-        <v>3</v>
-      </c>
-      <c r="R22">
-        <v>1.7</v>
-      </c>
       <c r="S22">
-        <v>2.05</v>
+        <v>1.63</v>
       </c>
       <c r="T22">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="U22">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="V22">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="W22">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="X22">
-        <v>1.25</v>
+        <v>1.78</v>
       </c>
       <c r="Y22">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="Z22">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AA22">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="AB22">
-        <v>1.65</v>
+        <v>1.84</v>
       </c>
       <c r="AC22">
         <v>7.5</v>
       </c>
       <c r="AD22">
-        <v>2.63</v>
+        <v>2.28</v>
       </c>
       <c r="AE22">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AF22">
-        <v>1.55</v>
+        <v>1.76</v>
       </c>
       <c r="AG22">
-        <v>1.93</v>
+        <v>2.25</v>
       </c>
       <c r="AH22">
-        <v>2.45</v>
+        <v>2.95</v>
       </c>
       <c r="AI22">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -3094,91 +3094,91 @@
         <v>105</v>
       </c>
       <c r="G23">
-        <v>2.21</v>
+        <v>1.72</v>
       </c>
       <c r="H23">
-        <v>3.89</v>
+        <v>3.73</v>
       </c>
       <c r="I23">
-        <v>3.11</v>
+        <v>3.83</v>
       </c>
       <c r="J23">
         <v>1.02</v>
       </c>
       <c r="K23">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L23">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M23">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="N23">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="O23">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="P23">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q23">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R23">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="S23">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="T23">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="U23">
         <v>1.22</v>
       </c>
       <c r="V23">
-        <v>1.66</v>
+        <v>2.38</v>
       </c>
       <c r="W23">
-        <v>1.62</v>
+        <v>2.15</v>
       </c>
       <c r="X23">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="Y23">
-        <v>1.15</v>
+        <v>1.71</v>
       </c>
       <c r="Z23">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AA23">
-        <v>2.51</v>
+        <v>2.93</v>
       </c>
       <c r="AB23">
-        <v>1.71</v>
+        <v>1.54</v>
       </c>
       <c r="AC23">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD23">
-        <v>2.48</v>
+        <v>2.95</v>
       </c>
       <c r="AE23">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AF23">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="AG23">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AH23">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="AI23">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -3201,96 +3201,96 @@
         <v>106</v>
       </c>
       <c r="G24">
-        <v>2.19</v>
+        <v>1.63</v>
       </c>
       <c r="H24">
-        <v>3.87</v>
+        <v>3.88</v>
       </c>
       <c r="I24">
-        <v>3.18</v>
+        <v>4.1</v>
       </c>
       <c r="J24">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K24">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L24">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="M24">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N24">
-        <v>1.67</v>
+        <v>1.87</v>
       </c>
       <c r="O24">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="P24">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <v>1.91</v>
+      </c>
+      <c r="S24">
+        <v>1.91</v>
+      </c>
+      <c r="T24">
+        <v>1.16</v>
+      </c>
+      <c r="U24">
+        <v>1.2</v>
+      </c>
+      <c r="V24">
+        <v>2.3</v>
+      </c>
+      <c r="W24">
+        <v>1.18</v>
+      </c>
+      <c r="X24">
+        <v>0.75</v>
+      </c>
+      <c r="Y24">
+        <v>1.68</v>
+      </c>
+      <c r="Z24">
+        <v>1.13</v>
+      </c>
+      <c r="AA24">
+        <v>2.81</v>
+      </c>
+      <c r="AB24">
+        <v>1.47</v>
+      </c>
+      <c r="AC24">
+        <v>8</v>
+      </c>
+      <c r="AD24">
         <v>3.25</v>
       </c>
-      <c r="R24">
-        <v>1.62</v>
-      </c>
-      <c r="S24">
-        <v>2.2</v>
-      </c>
-      <c r="T24">
-        <v>1.38</v>
-      </c>
-      <c r="U24">
-        <v>1.22</v>
-      </c>
-      <c r="V24">
-        <v>1.68</v>
-      </c>
-      <c r="W24">
-        <v>2.17</v>
-      </c>
-      <c r="X24">
-        <v>0.82</v>
-      </c>
-      <c r="Y24">
-        <v>1.48</v>
-      </c>
-      <c r="Z24">
-        <v>1.4</v>
-      </c>
-      <c r="AA24">
-        <v>2.88</v>
-      </c>
-      <c r="AB24">
-        <v>1.74</v>
-      </c>
-      <c r="AC24">
-        <v>7.5</v>
-      </c>
-      <c r="AD24">
-        <v>2.45</v>
-      </c>
       <c r="AE24">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AF24">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="AG24">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="AH24">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="AI24">
-        <v>3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="25" spans="1:35">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2">
         <v>45168</v>
@@ -3308,91 +3308,91 @@
         <v>107</v>
       </c>
       <c r="G25">
-        <v>1.69</v>
+        <v>1.17</v>
       </c>
       <c r="H25">
-        <v>4.19</v>
+        <v>5.9</v>
       </c>
       <c r="I25">
-        <v>4.98</v>
+        <v>11</v>
       </c>
       <c r="J25">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K25">
         <v>12</v>
       </c>
       <c r="L25">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="M25">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="N25">
+        <v>1.71</v>
+      </c>
+      <c r="O25">
+        <v>2.09</v>
+      </c>
+      <c r="P25">
+        <v>1.32</v>
+      </c>
+      <c r="Q25">
+        <v>3.1</v>
+      </c>
+      <c r="R25">
+        <v>2.45</v>
+      </c>
+      <c r="S25">
+        <v>1.47</v>
+      </c>
+      <c r="T25">
+        <v>1.03</v>
+      </c>
+      <c r="U25">
+        <v>1.12</v>
+      </c>
+      <c r="V25">
+        <v>4.2</v>
+      </c>
+      <c r="W25">
+        <v>2.44</v>
+      </c>
+      <c r="X25">
+        <v>1.33</v>
+      </c>
+      <c r="Y25">
+        <v>2.22</v>
+      </c>
+      <c r="Z25">
+        <v>1.06</v>
+      </c>
+      <c r="AA25">
+        <v>3.28</v>
+      </c>
+      <c r="AB25">
+        <v>1.19</v>
+      </c>
+      <c r="AC25">
+        <v>12</v>
+      </c>
+      <c r="AD25">
+        <v>6.75</v>
+      </c>
+      <c r="AE25">
+        <v>1.27</v>
+      </c>
+      <c r="AF25">
+        <v>1.5</v>
+      </c>
+      <c r="AG25">
         <v>1.85</v>
       </c>
-      <c r="O25">
-        <v>1.85</v>
-      </c>
-      <c r="P25">
-        <v>1.36</v>
-      </c>
-      <c r="Q25">
+      <c r="AH25">
+        <v>2.32</v>
+      </c>
+      <c r="AI25">
         <v>3</v>
-      </c>
-      <c r="R25">
-        <v>1.91</v>
-      </c>
-      <c r="S25">
-        <v>1.91</v>
-      </c>
-      <c r="T25">
-        <v>1.16</v>
-      </c>
-      <c r="U25">
-        <v>1.2</v>
-      </c>
-      <c r="V25">
-        <v>2.3</v>
-      </c>
-      <c r="W25">
-        <v>1.18</v>
-      </c>
-      <c r="X25">
-        <v>0.75</v>
-      </c>
-      <c r="Y25">
-        <v>1.68</v>
-      </c>
-      <c r="Z25">
-        <v>1.13</v>
-      </c>
-      <c r="AA25">
-        <v>2.81</v>
-      </c>
-      <c r="AB25">
-        <v>1.47</v>
-      </c>
-      <c r="AC25">
-        <v>8</v>
-      </c>
-      <c r="AD25">
-        <v>3.25</v>
-      </c>
-      <c r="AE25">
-        <v>1.29</v>
-      </c>
-      <c r="AF25">
-        <v>1.54</v>
-      </c>
-      <c r="AG25">
-        <v>1.92</v>
-      </c>
-      <c r="AH25">
-        <v>2.43</v>
-      </c>
-      <c r="AI25">
-        <v>3.2</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -3415,96 +3415,96 @@
         <v>108</v>
       </c>
       <c r="G26">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="H26">
-        <v>3.78</v>
+        <v>3.73</v>
       </c>
       <c r="I26">
-        <v>4.21</v>
+        <v>2.78</v>
       </c>
       <c r="J26">
         <v>1.02</v>
       </c>
       <c r="K26">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L26">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M26">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="N26">
-        <v>1.84</v>
+        <v>1.62</v>
       </c>
       <c r="O26">
-        <v>2.06</v>
+        <v>2.25</v>
       </c>
       <c r="P26">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q26">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R26">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="S26">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="T26">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="U26">
         <v>1.22</v>
       </c>
       <c r="V26">
-        <v>2.38</v>
+        <v>1.66</v>
       </c>
       <c r="W26">
-        <v>2.15</v>
+        <v>1.62</v>
       </c>
       <c r="X26">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="Y26">
+        <v>1.15</v>
+      </c>
+      <c r="Z26">
+        <v>1.36</v>
+      </c>
+      <c r="AA26">
+        <v>2.51</v>
+      </c>
+      <c r="AB26">
         <v>1.71</v>
       </c>
-      <c r="Z26">
-        <v>1.22</v>
-      </c>
-      <c r="AA26">
-        <v>2.93</v>
-      </c>
-      <c r="AB26">
-        <v>1.54</v>
-      </c>
       <c r="AC26">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD26">
-        <v>2.95</v>
+        <v>2.48</v>
       </c>
       <c r="AE26">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AF26">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="AG26">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="AH26">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="AI26">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2">
         <v>45168</v>
@@ -3522,96 +3522,96 @@
         <v>109</v>
       </c>
       <c r="G27">
-        <v>1.18</v>
+        <v>2.03</v>
       </c>
       <c r="H27">
-        <v>7.32</v>
+        <v>3.5</v>
       </c>
       <c r="I27">
-        <v>14.63</v>
+        <v>3</v>
       </c>
       <c r="J27">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K27">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L27">
+        <v>1.28</v>
+      </c>
+      <c r="M27">
+        <v>3.6</v>
+      </c>
+      <c r="N27">
+        <v>1.8</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="P27">
+        <v>1.36</v>
+      </c>
+      <c r="Q27">
+        <v>3</v>
+      </c>
+      <c r="R27">
+        <v>1.7</v>
+      </c>
+      <c r="S27">
+        <v>2.05</v>
+      </c>
+      <c r="T27">
+        <v>1.33</v>
+      </c>
+      <c r="U27">
+        <v>1.25</v>
+      </c>
+      <c r="V27">
+        <v>1.75</v>
+      </c>
+      <c r="W27">
+        <v>1.75</v>
+      </c>
+      <c r="X27">
+        <v>1.25</v>
+      </c>
+      <c r="Y27">
+        <v>1.52</v>
+      </c>
+      <c r="Z27">
         <v>1.22</v>
       </c>
-      <c r="M27">
-        <v>3.9</v>
-      </c>
-      <c r="N27">
-        <v>1.7</v>
-      </c>
-      <c r="O27">
-        <v>2.05</v>
-      </c>
-      <c r="P27">
-        <v>1.32</v>
-      </c>
-      <c r="Q27">
-        <v>3.1</v>
-      </c>
-      <c r="R27">
+      <c r="AA27">
+        <v>2.74</v>
+      </c>
+      <c r="AB27">
+        <v>1.65</v>
+      </c>
+      <c r="AC27">
+        <v>7.5</v>
+      </c>
+      <c r="AD27">
+        <v>2.63</v>
+      </c>
+      <c r="AE27">
+        <v>1.29</v>
+      </c>
+      <c r="AF27">
+        <v>1.55</v>
+      </c>
+      <c r="AG27">
+        <v>1.93</v>
+      </c>
+      <c r="AH27">
         <v>2.45</v>
       </c>
-      <c r="S27">
-        <v>1.47</v>
-      </c>
-      <c r="T27">
-        <v>1.03</v>
-      </c>
-      <c r="U27">
-        <v>1.12</v>
-      </c>
-      <c r="V27">
-        <v>4.2</v>
-      </c>
-      <c r="W27">
-        <v>2.44</v>
-      </c>
-      <c r="X27">
-        <v>1.33</v>
-      </c>
-      <c r="Y27">
-        <v>2.22</v>
-      </c>
-      <c r="Z27">
-        <v>1.06</v>
-      </c>
-      <c r="AA27">
-        <v>3.28</v>
-      </c>
-      <c r="AB27">
-        <v>1.19</v>
-      </c>
-      <c r="AC27">
-        <v>12</v>
-      </c>
-      <c r="AD27">
-        <v>6.75</v>
-      </c>
-      <c r="AE27">
-        <v>1.27</v>
-      </c>
-      <c r="AF27">
-        <v>1.5</v>
-      </c>
-      <c r="AG27">
-        <v>1.85</v>
-      </c>
-      <c r="AH27">
-        <v>2.32</v>
-      </c>
       <c r="AI27">
-        <v>3</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="28" spans="1:35">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2">
         <v>45168</v>
@@ -3629,91 +3629,91 @@
         <v>110</v>
       </c>
       <c r="G28">
-        <v>2.74</v>
+        <v>2</v>
       </c>
       <c r="H28">
-        <v>3.03</v>
+        <v>3.78</v>
       </c>
       <c r="I28">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="J28">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="K28">
-        <v>6.83</v>
+        <v>15</v>
       </c>
       <c r="L28">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="M28">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N28">
-        <v>2.38</v>
+        <v>1.72</v>
       </c>
       <c r="O28">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="P28">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="Q28">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="R28">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="S28">
-        <v>1.63</v>
+        <v>2.2</v>
       </c>
       <c r="T28">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="U28">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="V28">
-        <v>1.44</v>
+        <v>1.68</v>
       </c>
       <c r="W28">
-        <v>1.89</v>
+        <v>2.17</v>
       </c>
       <c r="X28">
-        <v>1.78</v>
+        <v>0.82</v>
       </c>
       <c r="Y28">
-        <v>1.64</v>
+        <v>1.48</v>
       </c>
       <c r="Z28">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="AA28">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="AB28">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="AC28">
         <v>7.5</v>
       </c>
       <c r="AD28">
-        <v>2.28</v>
+        <v>2.45</v>
       </c>
       <c r="AE28">
-        <v>1.43</v>
+        <v>1.26</v>
       </c>
       <c r="AF28">
-        <v>1.76</v>
+        <v>1.49</v>
       </c>
       <c r="AG28">
-        <v>2.25</v>
+        <v>1.84</v>
       </c>
       <c r="AH28">
-        <v>2.95</v>
+        <v>2.3</v>
       </c>
       <c r="AI28">
-        <v>4.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -3736,37 +3736,37 @@
         <v>111</v>
       </c>
       <c r="G29">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="H29">
-        <v>3.76</v>
+        <v>3.68</v>
       </c>
       <c r="I29">
-        <v>3.63</v>
+        <v>2.77</v>
       </c>
       <c r="J29">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K29">
-        <v>9.9</v>
+        <v>15</v>
       </c>
       <c r="L29">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="M29">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="N29">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="O29">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="P29">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q29">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R29">
         <v>1.62</v>
@@ -3775,52 +3775,52 @@
         <v>2.2</v>
       </c>
       <c r="T29">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="U29">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="V29">
-        <v>1.81</v>
+        <v>1.6</v>
       </c>
       <c r="W29">
-        <v>2.08</v>
+        <v>1.5</v>
       </c>
       <c r="X29">
-        <v>0.67</v>
+        <v>1.75</v>
       </c>
       <c r="Y29">
-        <v>1.42</v>
+        <v>1.61</v>
       </c>
       <c r="Z29">
-        <v>1.27</v>
+        <v>1.52</v>
       </c>
       <c r="AA29">
-        <v>2.69</v>
+        <v>3.13</v>
       </c>
       <c r="AB29">
-        <v>1.64</v>
+        <v>1.78</v>
       </c>
       <c r="AC29">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD29">
-        <v>2.65</v>
+        <v>2.35</v>
       </c>
       <c r="AE29">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AF29">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="AG29">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="AH29">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AI29">
-        <v>3</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -3843,37 +3843,37 @@
         <v>112</v>
       </c>
       <c r="G30">
-        <v>2.27</v>
+        <v>1.99</v>
       </c>
       <c r="H30">
-        <v>3.83</v>
+        <v>3.45</v>
       </c>
       <c r="I30">
-        <v>3.07</v>
+        <v>3.1</v>
       </c>
       <c r="J30">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K30">
-        <v>15</v>
+        <v>9.9</v>
       </c>
       <c r="L30">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="M30">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="N30">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="O30">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="P30">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q30">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R30">
         <v>1.62</v>
@@ -3882,52 +3882,52 @@
         <v>2.2</v>
       </c>
       <c r="T30">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="U30">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="V30">
-        <v>1.6</v>
+        <v>1.81</v>
       </c>
       <c r="W30">
-        <v>1.5</v>
+        <v>2.08</v>
       </c>
       <c r="X30">
-        <v>1.75</v>
+        <v>0.67</v>
       </c>
       <c r="Y30">
-        <v>1.61</v>
+        <v>1.42</v>
       </c>
       <c r="Z30">
-        <v>1.52</v>
+        <v>1.27</v>
       </c>
       <c r="AA30">
-        <v>3.13</v>
+        <v>2.69</v>
       </c>
       <c r="AB30">
-        <v>1.78</v>
+        <v>1.64</v>
       </c>
       <c r="AC30">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD30">
-        <v>2.35</v>
+        <v>2.65</v>
       </c>
       <c r="AE30">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AF30">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="AG30">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AH30">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AI30">
-        <v>3.15</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
